--- a/data/trans_orig/IP25A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{489B14A3-C3B6-45DC-AB3B-02B74113CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80EC92A-F813-40EB-902A-D11379BCDA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8A5B4411-F4F6-468B-A0E3-83F63E33B79C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0331CB3E-7FC5-43B5-B0B9-9578D86F8A24}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Menos de 1 hora</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
     <t>De 1 hora a 2 horas</t>
   </si>
   <si>
@@ -130,36 +160,6 @@
     <t>11,72%</t>
   </si>
   <si>
-    <t>Menos de 1 hora</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
     <t>Más de 3 horas</t>
   </si>
   <si>
@@ -193,9 +193,141 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
     <t>41,2%</t>
   </si>
   <si>
@@ -247,33 +379,6 @@
     <t>44,14%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
     <t>12,36%</t>
   </si>
   <si>
@@ -301,109 +406,31 @@
     <t>14,69%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>47,9%</t>
@@ -460,33 +487,6 @@
     <t>32,18%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
     <t>7,77%</t>
   </si>
   <si>
@@ -517,6 +517,33 @@
     <t>Menores según el número de horas que emprean en ver la televisión / 2007/11/15 en 2012 (Tasa respuesta: 89,71%)</t>
   </si>
   <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
     <t>48,69%</t>
   </si>
   <si>
@@ -571,33 +598,6 @@
     <t>17,14%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
     <t>5,95%</t>
   </si>
   <si>
@@ -622,6 +622,132 @@
     <t>6,96%</t>
   </si>
   <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
     <t>51,11%</t>
   </si>
   <si>
@@ -676,30 +802,6 @@
     <t>35,91%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
     <t>11,7%</t>
   </si>
   <si>
@@ -727,106 +829,31 @@
     <t>14,07%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>50,1%</t>
@@ -880,33 +907,6 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
     <t>8,89%</t>
   </si>
   <si>
@@ -937,6 +937,30 @@
     <t>Menores según el número de horas que emprean en ver la televisión / 2007/11/15 en 2015 (Tasa respuesta: 89,13%)</t>
   </si>
   <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
     <t>49,99%</t>
   </si>
   <si>
@@ -991,30 +1015,6 @@
     <t>27,19%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
     <t>6,02%</t>
   </si>
   <si>
@@ -1039,6 +1039,132 @@
     <t>8,02%</t>
   </si>
   <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
     <t>38,27%</t>
   </si>
   <si>
@@ -1093,33 +1219,6 @@
     <t>41,65%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
     <t>12,86%</t>
   </si>
   <si>
@@ -1147,103 +1246,31 @@
     <t>17,24%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>42,15%</t>
@@ -1289,33 +1316,6 @@
   </si>
   <si>
     <t>36,35%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
   </si>
   <si>
     <t>10,57%</t>
@@ -1734,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F619659-C0D1-4D87-B83E-B1766FF32BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B11F01-2E2B-41D7-9727-E7257209D60E}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1852,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7">
-        <v>78217</v>
+        <v>57143</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1867,10 +1867,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>85605</v>
+        <v>51455</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1882,10 +1882,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="N4" s="7">
-        <v>163822</v>
+        <v>108598</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1903,10 +1903,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>13526</v>
+        <v>78217</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1918,10 +1918,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I5" s="7">
-        <v>13948</v>
+        <v>85605</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1933,10 +1933,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="N5" s="7">
-        <v>27475</v>
+        <v>163822</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1954,10 +1954,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>57143</v>
+        <v>13526</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1969,10 +1969,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>51455</v>
+        <v>13948</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1984,10 +1984,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="N6" s="7">
-        <v>108598</v>
+        <v>27475</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2109,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>111649</v>
+        <v>15517</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2124,10 +2124,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>107424</v>
+        <v>18856</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -2136,22 +2136,22 @@
         <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="7">
+        <v>52</v>
+      </c>
+      <c r="N9" s="7">
+        <v>34373</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>330</v>
-      </c>
-      <c r="N9" s="7">
-        <v>219072</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,40 +2160,40 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7">
-        <v>110720</v>
+        <v>112844</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>168</v>
+      </c>
+      <c r="I10" s="7">
+        <v>112225</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>157</v>
-      </c>
-      <c r="I10" s="7">
-        <v>106213</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="M10" s="7">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="N10" s="7">
-        <v>216933</v>
+        <v>225069</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2211,10 +2211,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D11" s="7">
-        <v>15109</v>
+        <v>68109</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -2226,10 +2226,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I11" s="7">
-        <v>15120</v>
+        <v>63352</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -2241,10 +2241,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="N11" s="7">
-        <v>30229</v>
+        <v>131461</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -2262,10 +2262,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>33490</v>
+        <v>12147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -2277,10 +2277,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>29363</v>
+        <v>9022</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -2292,19 +2292,19 @@
         <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>62853</v>
+        <v>21169</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,10 +2313,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="D13" s="7">
-        <v>270968</v>
+        <v>208616</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2328,10 +2328,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>383</v>
+        <v>301</v>
       </c>
       <c r="I13" s="7">
-        <v>258120</v>
+        <v>203456</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2343,10 +2343,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>789</v>
+        <v>617</v>
       </c>
       <c r="N13" s="7">
-        <v>529087</v>
+        <v>412071</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2360,55 +2360,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>112844</v>
+        <v>15109</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7">
+        <v>15120</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>168</v>
-      </c>
-      <c r="I14" s="7">
-        <v>112225</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>45</v>
+      </c>
+      <c r="N14" s="7">
+        <v>30229</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>340</v>
-      </c>
-      <c r="N14" s="7">
-        <v>225069</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,49 +2417,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>168</v>
+      </c>
+      <c r="D15" s="7">
+        <v>111649</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="7">
+        <v>162</v>
+      </c>
+      <c r="I15" s="7">
+        <v>107424</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="7">
+        <v>330</v>
+      </c>
+      <c r="N15" s="7">
+        <v>219072</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="7">
-        <v>68109</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="7">
-        <v>92</v>
-      </c>
-      <c r="I15" s="7">
-        <v>63352</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="7">
-        <v>194</v>
-      </c>
-      <c r="N15" s="7">
-        <v>131461</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,49 +2468,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="D16" s="7">
-        <v>15517</v>
+        <v>110720</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>157</v>
+      </c>
+      <c r="I16" s="7">
+        <v>106213</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18856</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="7">
+        <v>323</v>
+      </c>
+      <c r="N16" s="7">
+        <v>216933</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="7">
-        <v>52</v>
-      </c>
-      <c r="N16" s="7">
-        <v>34373</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,43 +2519,43 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>12147</v>
+        <v>33490</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>42</v>
+      </c>
+      <c r="I17" s="7">
+        <v>29363</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="7">
-        <v>13</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9022</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>91</v>
+      </c>
+      <c r="N17" s="7">
+        <v>62853</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="M17" s="7">
-        <v>31</v>
-      </c>
-      <c r="N17" s="7">
-        <v>21169</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>120</v>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="D18" s="7">
-        <v>208616</v>
+        <v>270968</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2585,10 +2585,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="I18" s="7">
-        <v>203456</v>
+        <v>258120</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2600,10 +2600,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>617</v>
+        <v>789</v>
       </c>
       <c r="N18" s="7">
-        <v>412071</v>
+        <v>529087</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2623,10 +2623,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7">
-        <v>302709</v>
+        <v>87769</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>122</v>
@@ -2638,10 +2638,10 @@
         <v>124</v>
       </c>
       <c r="H19" s="7">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="I19" s="7">
-        <v>305253</v>
+        <v>85432</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>125</v>
@@ -2653,10 +2653,10 @@
         <v>127</v>
       </c>
       <c r="M19" s="7">
-        <v>915</v>
+        <v>262</v>
       </c>
       <c r="N19" s="7">
-        <v>607962</v>
+        <v>173201</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>128</v>
@@ -2674,10 +2674,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="D20" s="7">
-        <v>192355</v>
+        <v>302709</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>131</v>
@@ -2689,10 +2689,10 @@
         <v>133</v>
       </c>
       <c r="H20" s="7">
-        <v>271</v>
+        <v>459</v>
       </c>
       <c r="I20" s="7">
-        <v>183514</v>
+        <v>305253</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>134</v>
@@ -2704,10 +2704,10 @@
         <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>559</v>
+        <v>915</v>
       </c>
       <c r="N20" s="7">
-        <v>375869</v>
+        <v>607962</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>137</v>
@@ -2725,10 +2725,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="D21" s="7">
-        <v>87769</v>
+        <v>192355</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>140</v>
@@ -2740,10 +2740,10 @@
         <v>142</v>
       </c>
       <c r="H21" s="7">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="I21" s="7">
-        <v>85432</v>
+        <v>183514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>143</v>
@@ -2755,10 +2755,10 @@
         <v>145</v>
       </c>
       <c r="M21" s="7">
-        <v>262</v>
+        <v>559</v>
       </c>
       <c r="N21" s="7">
-        <v>173201</v>
+        <v>375869</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>146</v>
@@ -2888,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25CDA9D-0CAC-454B-B820-E931043B2B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED047E8F-706F-4805-AF78-239791101F93}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3006,10 +3006,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>86942</v>
+        <v>54576</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>159</v>
@@ -3021,10 +3021,10 @@
         <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>73298</v>
+        <v>60170</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>162</v>
@@ -3036,10 +3036,10 @@
         <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="N4" s="7">
-        <v>160241</v>
+        <v>114746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>165</v>
@@ -3057,10 +3057,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>26428</v>
+        <v>86942</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>168</v>
@@ -3072,10 +3072,10 @@
         <v>170</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>20108</v>
+        <v>73298</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>171</v>
@@ -3087,10 +3087,10 @@
         <v>173</v>
       </c>
       <c r="M5" s="7">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="N5" s="7">
-        <v>46536</v>
+        <v>160241</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>174</v>
@@ -3108,10 +3108,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>54576</v>
+        <v>26428</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>177</v>
@@ -3123,10 +3123,10 @@
         <v>179</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>60170</v>
+        <v>20108</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>180</v>
@@ -3138,10 +3138,10 @@
         <v>182</v>
       </c>
       <c r="M6" s="7">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>114746</v>
+        <v>46536</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>183</v>
@@ -3195,7 +3195,7 @@
         <v>14909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>192</v>
@@ -3263,10 +3263,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>135501</v>
+        <v>21046</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>194</v>
@@ -3275,37 +3275,37 @@
         <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="7">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7">
+        <v>23983</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="7">
-        <v>165</v>
-      </c>
-      <c r="I9" s="7">
-        <v>115336</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>63</v>
+      </c>
+      <c r="N9" s="7">
+        <v>45029</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="7">
-        <v>365</v>
-      </c>
-      <c r="N9" s="7">
-        <v>250837</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3314,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D10" s="7">
-        <v>81632</v>
+        <v>119788</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>161</v>
+      </c>
+      <c r="I10" s="7">
+        <v>114854</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="7">
-        <v>121</v>
-      </c>
-      <c r="I10" s="7">
-        <v>86257</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>327</v>
+      </c>
+      <c r="N10" s="7">
+        <v>234642</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="7">
-        <v>243</v>
-      </c>
-      <c r="N10" s="7">
-        <v>167889</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,46 +3365,46 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>16960</v>
+        <v>79470</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>97</v>
+      </c>
+      <c r="I11" s="7">
+        <v>70013</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19963</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>206</v>
+      </c>
+      <c r="N11" s="7">
+        <v>149483</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M11" s="7">
-        <v>53</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36923</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>219</v>
@@ -3416,49 +3416,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>31017</v>
+        <v>19056</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7">
+        <v>14688</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29049</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>47</v>
+      </c>
+      <c r="N12" s="7">
+        <v>33744</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M12" s="7">
-        <v>87</v>
-      </c>
-      <c r="N12" s="7">
-        <v>60066</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,10 +3467,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="D13" s="7">
-        <v>265110</v>
+        <v>239360</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -3482,10 +3482,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="I13" s="7">
-        <v>250606</v>
+        <v>223538</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3497,10 +3497,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>748</v>
+        <v>643</v>
       </c>
       <c r="N13" s="7">
-        <v>515715</v>
+        <v>462898</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -3514,55 +3514,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>119788</v>
+        <v>16960</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19963</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="7">
-        <v>161</v>
-      </c>
-      <c r="I14" s="7">
-        <v>114854</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>53</v>
+      </c>
+      <c r="N14" s="7">
+        <v>36923</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M14" s="7">
-        <v>327</v>
-      </c>
-      <c r="N14" s="7">
-        <v>234642</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3571,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D15" s="7">
-        <v>79470</v>
+        <v>135501</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>165</v>
+      </c>
+      <c r="I15" s="7">
+        <v>115336</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>70013</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>365</v>
+      </c>
+      <c r="N15" s="7">
+        <v>250837</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M15" s="7">
-        <v>206</v>
-      </c>
-      <c r="N15" s="7">
-        <v>149483</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,49 +3622,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>21046</v>
+        <v>81632</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>121</v>
+      </c>
+      <c r="I16" s="7">
+        <v>86257</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>34</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23983</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>243</v>
+      </c>
+      <c r="N16" s="7">
+        <v>167889</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="7">
-        <v>63</v>
-      </c>
-      <c r="N16" s="7">
-        <v>45029</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,25 +3673,25 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>19056</v>
+        <v>31017</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>14688</v>
+        <v>29049</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>257</v>
@@ -3703,10 +3703,10 @@
         <v>259</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>33744</v>
+        <v>60066</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>260</v>
@@ -3724,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="D18" s="7">
-        <v>239360</v>
+        <v>265110</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -3739,10 +3739,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="I18" s="7">
-        <v>223538</v>
+        <v>250606</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -3754,10 +3754,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>643</v>
+        <v>748</v>
       </c>
       <c r="N18" s="7">
-        <v>462898</v>
+        <v>515715</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="D19" s="7">
-        <v>342231</v>
+        <v>92582</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>263</v>
@@ -3792,10 +3792,10 @@
         <v>265</v>
       </c>
       <c r="H19" s="7">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="I19" s="7">
-        <v>303489</v>
+        <v>104116</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>266</v>
@@ -3807,19 +3807,19 @@
         <v>268</v>
       </c>
       <c r="M19" s="7">
-        <v>930</v>
+        <v>282</v>
       </c>
       <c r="N19" s="7">
-        <v>645720</v>
+        <v>196698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,43 +3828,43 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>268</v>
+        <v>492</v>
       </c>
       <c r="D20" s="7">
-        <v>187530</v>
+        <v>342231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="I20" s="7">
-        <v>176379</v>
+        <v>303489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
-        <v>517</v>
+        <v>930</v>
       </c>
       <c r="N20" s="7">
-        <v>363909</v>
+        <v>645720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>278</v>
@@ -3879,10 +3879,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="D21" s="7">
-        <v>92582</v>
+        <v>187530</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>280</v>
@@ -3894,10 +3894,10 @@
         <v>282</v>
       </c>
       <c r="H21" s="7">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="I21" s="7">
-        <v>104116</v>
+        <v>176379</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>283</v>
@@ -3909,10 +3909,10 @@
         <v>285</v>
       </c>
       <c r="M21" s="7">
-        <v>282</v>
+        <v>517</v>
       </c>
       <c r="N21" s="7">
-        <v>196698</v>
+        <v>363909</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>286</v>
@@ -4042,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DEFC1E-D356-4913-986E-9597F39E5201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD014C00-533C-4312-8085-E50895D8C42A}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4160,49 +4160,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>80407</v>
+        <v>33238</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>58</v>
+      </c>
+      <c r="I4" s="7">
+        <v>36437</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="7">
-        <v>102</v>
-      </c>
-      <c r="I4" s="7">
-        <v>62465</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>109</v>
+      </c>
+      <c r="N4" s="7">
+        <v>69675</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M4" s="7">
-        <v>223</v>
-      </c>
-      <c r="N4" s="7">
-        <v>142873</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +4211,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>37510</v>
+        <v>80407</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>102</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62465</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="7">
-        <v>54</v>
-      </c>
-      <c r="I5" s="7">
-        <v>31867</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>223</v>
+      </c>
+      <c r="N5" s="7">
+        <v>142873</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="M5" s="7">
-        <v>111</v>
-      </c>
-      <c r="N5" s="7">
-        <v>69377</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,25 +4262,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>33238</v>
+        <v>37510</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>318</v>
       </c>
       <c r="H6" s="7">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>36437</v>
+        <v>31867</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>319</v>
@@ -4292,10 +4292,10 @@
         <v>321</v>
       </c>
       <c r="M6" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N6" s="7">
-        <v>69675</v>
+        <v>69377</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>322</v>
@@ -4352,7 +4352,7 @@
         <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>332</v>
@@ -4417,49 +4417,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>103701</v>
+        <v>27488</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>333</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>38</v>
+      </c>
+      <c r="I9" s="7">
+        <v>24744</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H9" s="7">
-        <v>131</v>
-      </c>
-      <c r="I9" s="7">
-        <v>94409</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>79</v>
+      </c>
+      <c r="N9" s="7">
+        <v>52232</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="7">
-        <v>271</v>
-      </c>
-      <c r="N9" s="7">
-        <v>198110</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,49 +4468,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>109644</v>
+        <v>100404</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>150</v>
+      </c>
+      <c r="I10" s="7">
+        <v>96166</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H10" s="7">
-        <v>131</v>
-      </c>
-      <c r="I10" s="7">
-        <v>93675</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>296</v>
+      </c>
+      <c r="N10" s="7">
+        <v>196570</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M10" s="7">
-        <v>280</v>
-      </c>
-      <c r="N10" s="7">
-        <v>203318</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,49 +4519,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>22755</v>
+        <v>88549</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>126</v>
+      </c>
+      <c r="I11" s="7">
+        <v>82817</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H11" s="7">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7">
-        <v>29118</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>254</v>
+      </c>
+      <c r="N11" s="7">
+        <v>171366</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="M11" s="7">
-        <v>72</v>
-      </c>
-      <c r="N11" s="7">
-        <v>51872</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,49 +4570,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>34837</v>
+        <v>26846</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7">
+        <v>21593</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H12" s="7">
-        <v>58</v>
-      </c>
-      <c r="I12" s="7">
-        <v>42011</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>70</v>
+      </c>
+      <c r="N12" s="7">
+        <v>48439</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M12" s="7">
-        <v>105</v>
-      </c>
-      <c r="N12" s="7">
-        <v>76848</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,10 +4621,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D13" s="7">
-        <v>270937</v>
+        <v>243288</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -4636,10 +4636,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="I13" s="7">
-        <v>259212</v>
+        <v>225320</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4651,10 +4651,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="N13" s="7">
-        <v>530149</v>
+        <v>468607</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -4668,55 +4668,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>100404</v>
+        <v>22755</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="7">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7">
+        <v>29118</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H14" s="7">
-        <v>150</v>
-      </c>
-      <c r="I14" s="7">
-        <v>96166</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>72</v>
+      </c>
+      <c r="N14" s="7">
+        <v>51872</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M14" s="7">
-        <v>296</v>
-      </c>
-      <c r="N14" s="7">
-        <v>196570</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,49 +4725,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7">
-        <v>88549</v>
+        <v>103701</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>131</v>
+      </c>
+      <c r="I15" s="7">
+        <v>94409</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="7">
-        <v>126</v>
-      </c>
-      <c r="I15" s="7">
-        <v>82817</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>271</v>
+      </c>
+      <c r="N15" s="7">
+        <v>198110</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="M15" s="7">
-        <v>254</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171366</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,49 +4776,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D16" s="7">
-        <v>27488</v>
+        <v>109644</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>131</v>
+      </c>
+      <c r="I16" s="7">
+        <v>93675</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24744</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>280</v>
+      </c>
+      <c r="N16" s="7">
+        <v>203318</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="M16" s="7">
-        <v>79</v>
-      </c>
-      <c r="N16" s="7">
-        <v>52232</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,28 +4827,28 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>26846</v>
+        <v>34837</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>58</v>
+      </c>
+      <c r="I17" s="7">
+        <v>42011</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21593</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>397</v>
@@ -4857,10 +4857,10 @@
         <v>398</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>48439</v>
+        <v>76848</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>399</v>
@@ -4878,10 +4878,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D18" s="7">
-        <v>243288</v>
+        <v>270937</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -4893,10 +4893,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="I18" s="7">
-        <v>225320</v>
+        <v>259212</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -4908,10 +4908,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="N18" s="7">
-        <v>468607</v>
+        <v>530149</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4931,10 +4931,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7">
-        <v>284512</v>
+        <v>83481</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>402</v>
@@ -4943,37 +4943,37 @@
         <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="I19" s="7">
-        <v>253039</v>
+        <v>90298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="N19" s="7">
-        <v>537552</v>
+        <v>173779</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,49 +4982,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="D20" s="7">
-        <v>235703</v>
+        <v>284512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="I20" s="7">
-        <v>208359</v>
+        <v>253039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
-        <v>645</v>
+        <v>790</v>
       </c>
       <c r="N20" s="7">
-        <v>444061</v>
+        <v>537552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,25 +5033,25 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="D21" s="7">
-        <v>83481</v>
+        <v>235703</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>419</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="I21" s="7">
-        <v>90298</v>
+        <v>208359</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>420</v>
@@ -5063,10 +5063,10 @@
         <v>422</v>
       </c>
       <c r="M21" s="7">
-        <v>260</v>
+        <v>645</v>
       </c>
       <c r="N21" s="7">
-        <v>173779</v>
+        <v>444061</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>423</v>

--- a/data/trans_orig/IP25A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A6B514B-15DC-482D-8544-A22757E1574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E5C2FE-DD2B-4357-A6E5-54511369CF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A4E7EA0-5FB4-48B1-9103-C367C5E53DB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2418D66-FB9F-4CE0-BD5E-C9A8F979EBC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="720">
   <si>
     <t>Menores según el número de horas que emplean en ver la televisión en 2007 (Tasa respuesta: 88,64%)</t>
   </si>
@@ -95,2164 +95,2110 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,57%</t>
+    <t>6,39%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 horas</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>De 1 hora a 2 horas</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>Menos de 1 hora</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de horas que emplean en ver la televisión en 2012 (Tasa respuesta: 89,71%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Menores según el número de horas que emplean en ver la televisión en 2016 (Tasa respuesta: 89,13%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>Menores según el número de horas que emplean en ver la televisión en 2023 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>De 2 a 3 horas</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>De 1 hora a 2 horas</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>Menos de 1 hora</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de horas que emplean en ver la televisión en 2012 (Tasa respuesta: 89,71%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>Menores según el número de horas que emplean en ver la televisión en 2015 (Tasa respuesta: 89,13%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>Menores según el número de horas que emplean en ver la televisión en 2023 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>3,31%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>12,9%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>46,24%</t>
   </si>
   <si>
-    <t>42,43%</t>
+    <t>42,55%</t>
   </si>
   <si>
     <t>47,24%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>49,7%</t>
   </si>
   <si>
     <t>38,15%</t>
   </si>
   <si>
-    <t>34,57%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>39,98%</t>
   </si>
   <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
 </sst>
 </file>
@@ -2664,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872D0B71-7F89-487C-A894-9637DE0D846F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72415C17-D901-4226-8A9D-F060F72F4836}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2923,16 +2869,16 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>33</v>
@@ -2941,13 +2887,13 @@
         <v>21871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -2956,13 +2902,13 @@
         <v>23995</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -2971,19 +2917,19 @@
         <v>45866</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>50</v>
@@ -2992,13 +2938,13 @@
         <v>33304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -3007,13 +2953,13 @@
         <v>27871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -3022,13 +2968,13 @@
         <v>61174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +2989,13 @@
         <v>55823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -3058,13 +3004,13 @@
         <v>53744</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>166</v>
@@ -3073,18 +3019,18 @@
         <v>109566</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3102,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3117,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3240,7 +3186,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>210</v>
@@ -3291,7 +3237,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>56</v>
@@ -3351,13 +3297,13 @@
         <v>242469</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>368</v>
@@ -3366,13 +3312,13 @@
         <v>246487</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>733</v>
@@ -3381,13 +3327,13 @@
         <v>488956</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,7 +3494,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>94</v>
@@ -3599,7 +3545,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -3659,13 +3605,13 @@
         <v>134689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>188</v>
@@ -3674,13 +3620,13 @@
         <v>125462</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>390</v>
@@ -3689,13 +3635,13 @@
         <v>260151</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3802,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>119</v>
@@ -3907,7 +3853,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>19</v>
@@ -3967,13 +3913,13 @@
         <v>198969</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>277</v>
@@ -3982,13 +3928,13 @@
         <v>188057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>576</v>
@@ -3997,13 +3943,13 @@
         <v>387026</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4110,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>456</v>
@@ -4215,7 +4161,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>134</v>
@@ -4275,13 +4221,13 @@
         <v>631949</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>915</v>
@@ -4290,13 +4236,13 @@
         <v>613750</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>1865</v>
@@ -4305,13 +4251,13 @@
         <v>1245699</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0405A2FA-E319-47A7-A811-A7CC98D16BD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6A3227-CAA4-478B-889B-B8036BDA094C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4514,10 +4460,10 @@
         <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4526,13 +4472,13 @@
         <v>1468</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4541,13 +4487,13 @@
         <v>4515</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4508,13 @@
         <v>5651</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4577,13 +4523,13 @@
         <v>3900</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4592,19 +4538,19 @@
         <v>9551</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>56</v>
@@ -4613,13 +4559,13 @@
         <v>38172</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4628,13 +4574,13 @@
         <v>31542</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -4643,19 +4589,19 @@
         <v>69714</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>57</v>
@@ -4664,13 +4610,13 @@
         <v>40704</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -4679,13 +4625,13 @@
         <v>46013</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>125</v>
@@ -4694,13 +4640,13 @@
         <v>86717</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4661,13 @@
         <v>87574</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
@@ -4730,13 +4676,13 @@
         <v>82923</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -4745,18 +4691,18 @@
         <v>170497</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4774,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4789,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4804,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4765,13 @@
         <v>19383</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4834,13 +4780,13 @@
         <v>11930</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -4849,13 +4795,13 @@
         <v>31313</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4816,13 @@
         <v>76283</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -4885,7 +4831,7 @@
         <v>62725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>260</v>
@@ -4912,7 +4858,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>198</v>
@@ -4963,7 +4909,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -4975,10 +4921,10 @@
         <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -4987,13 +4933,13 @@
         <v>32727</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -5002,13 +4948,13 @@
         <v>61463</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +4969,13 @@
         <v>265535</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>328</v>
@@ -5038,13 +4984,13 @@
         <v>228551</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>697</v>
@@ -5053,13 +4999,13 @@
         <v>494086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,10 +5091,10 @@
         <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -5157,7 +5103,7 @@
         <v>29076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>291</v>
@@ -5220,7 +5166,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>104</v>
@@ -5250,7 +5196,7 @@
         <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>214</v>
@@ -5259,19 +5205,19 @@
         <v>148144</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -5280,13 +5226,13 @@
         <v>13639</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -5295,13 +5241,13 @@
         <v>10219</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -5310,13 +5256,13 @@
         <v>23857</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5277,13 @@
         <v>155601</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>219</v>
@@ -5346,13 +5292,13 @@
         <v>154251</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>443</v>
@@ -5361,13 +5307,13 @@
         <v>309852</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,7 +5336,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5405,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5420,7 +5366,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5381,13 @@
         <v>21667</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -5450,10 +5396,10 @@
         <v>22148</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>327</v>
@@ -5465,13 +5411,13 @@
         <v>43815</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5432,13 @@
         <v>51449</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>77</v>
@@ -5501,13 +5447,13 @@
         <v>55126</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>154</v>
@@ -5516,19 +5462,19 @@
         <v>106575</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>134</v>
@@ -5537,10 +5483,10 @@
         <v>91713</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>341</v>
@@ -5573,13 +5519,13 @@
         <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -5588,13 +5534,13 @@
         <v>9504</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -5603,13 +5549,13 @@
         <v>15157</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -5618,13 +5564,13 @@
         <v>24661</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5585,13 @@
         <v>174332</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>236</v>
@@ -5654,13 +5600,13 @@
         <v>166278</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>493</v>
@@ -5669,13 +5615,13 @@
         <v>340610</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5689,13 @@
         <v>60699</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -5758,13 +5704,13 @@
         <v>48019</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -5836,7 +5782,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>492</v>
@@ -5863,10 +5809,10 @@
         <v>375</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M31" s="7">
         <v>930</v>
@@ -5875,19 +5821,19 @@
         <v>645720</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>129</v>
@@ -5896,13 +5842,13 @@
         <v>92582</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H32" s="7">
         <v>153</v>
@@ -5911,13 +5857,13 @@
         <v>104116</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
@@ -5929,10 +5875,10 @@
         <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5893,13 @@
         <v>683042</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>908</v>
@@ -5962,13 +5908,13 @@
         <v>632003</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>1883</v>
@@ -5977,13 +5923,13 @@
         <v>1315045</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +5954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A3A38A-B3FF-458C-9CA1-E9CA1F5A1144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BB6CEF-7ACE-42CB-9A7D-20A74B47F93D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6025,7 +5971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6138,7 +6084,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6153,7 +6099,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6168,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6129,13 @@
         <v>625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6198,13 +6144,13 @@
         <v>4572</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6213,13 +6159,13 @@
         <v>5197</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6180,13 @@
         <v>14092</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -6249,13 +6195,13 @@
         <v>7469</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -6264,19 +6210,19 @@
         <v>21562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>55</v>
@@ -6285,13 +6231,13 @@
         <v>36276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -6300,13 +6246,13 @@
         <v>33615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
@@ -6315,19 +6261,19 @@
         <v>69892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>39</v>
@@ -6336,13 +6282,13 @@
         <v>25358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -6351,13 +6297,13 @@
         <v>26754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -6366,13 +6312,13 @@
         <v>52112</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6333,13 @@
         <v>76352</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>117</v>
@@ -6402,13 +6348,13 @@
         <v>72411</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -6417,18 +6363,18 @@
         <v>148763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6446,7 +6392,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6461,7 +6407,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6476,7 +6422,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6437,13 @@
         <v>24815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -6506,13 +6452,13 @@
         <v>15330</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>429</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -6524,10 +6470,10 @@
         <v>430</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6488,13 @@
         <v>83751</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -6557,13 +6503,13 @@
         <v>72540</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>238</v>
@@ -6572,19 +6518,19 @@
         <v>156291</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>168</v>
@@ -6593,13 +6539,13 @@
         <v>113337</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -6608,13 +6554,13 @@
         <v>88302</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>308</v>
@@ -6623,19 +6569,19 @@
         <v>201639</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -6644,13 +6590,13 @@
         <v>26156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -6659,13 +6605,13 @@
         <v>23779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -6674,13 +6620,13 @@
         <v>49935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6641,13 @@
         <v>248060</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>316</v>
@@ -6710,28 +6656,28 @@
         <v>199951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>681</v>
       </c>
       <c r="N15" s="7">
-        <v>448011</v>
+        <v>448010</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6700,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6769,7 +6715,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6784,7 +6730,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6745,13 @@
         <v>23691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -6814,13 +6760,13 @@
         <v>21191</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -6829,13 +6775,13 @@
         <v>44882</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6796,13 @@
         <v>69745</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -6865,13 +6811,13 @@
         <v>59614</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -6880,19 +6826,19 @@
         <v>129359</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>99</v>
@@ -6901,13 +6847,13 @@
         <v>70798</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -6916,13 +6862,13 @@
         <v>78187</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>214</v>
@@ -6931,19 +6877,19 @@
         <v>148985</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>31</v>
@@ -6952,13 +6898,13 @@
         <v>21974</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -6967,13 +6913,13 @@
         <v>24229</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -6982,13 +6928,13 @@
         <v>46203</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +6949,13 @@
         <v>186208</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>264</v>
@@ -7018,13 +6964,13 @@
         <v>183221</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>524</v>
@@ -7033,13 +6979,13 @@
         <v>369429</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7008,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7077,7 +7023,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7092,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7053,13 @@
         <v>22229</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -7122,13 +7068,13 @@
         <v>29582</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -7137,13 +7083,13 @@
         <v>51811</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7104,13 @@
         <v>68114</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H24" s="7">
         <v>97</v>
@@ -7173,13 +7119,13 @@
         <v>68736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>190</v>
@@ -7188,19 +7134,19 @@
         <v>136850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>85</v>
@@ -7209,13 +7155,13 @@
         <v>64101</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -7224,13 +7170,13 @@
         <v>52935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -7239,19 +7185,19 @@
         <v>117037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -7260,13 +7206,13 @@
         <v>9993</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -7275,13 +7221,13 @@
         <v>15536</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>523</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -7290,13 +7236,13 @@
         <v>25528</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7257,13 @@
         <v>164437</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>235</v>
@@ -7326,13 +7272,13 @@
         <v>166789</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>457</v>
@@ -7341,13 +7287,13 @@
         <v>331226</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7361,13 @@
         <v>71360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H29" s="7">
         <v>101</v>
@@ -7430,13 +7376,13 @@
         <v>70676</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M29" s="7">
         <v>200</v>
@@ -7445,13 +7391,13 @@
         <v>142036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>323</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7412,13 @@
         <v>235703</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H30" s="7">
         <v>311</v>
@@ -7481,13 +7427,13 @@
         <v>208359</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M30" s="7">
         <v>645</v>
@@ -7496,19 +7442,19 @@
         <v>444061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>545</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>407</v>
@@ -7517,13 +7463,13 @@
         <v>284512</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H31" s="7">
         <v>383</v>
@@ -7532,13 +7478,13 @@
         <v>253039</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M31" s="7">
         <v>790</v>
@@ -7547,19 +7493,19 @@
         <v>537552</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>123</v>
@@ -7568,13 +7514,13 @@
         <v>83481</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H32" s="7">
         <v>137</v>
@@ -7583,13 +7529,13 @@
         <v>90298</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M32" s="7">
         <v>260</v>
@@ -7598,13 +7544,13 @@
         <v>173779</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7565,13 @@
         <v>675056</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>932</v>
@@ -7634,13 +7580,13 @@
         <v>622372</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>1895</v>
@@ -7649,13 +7595,13 @@
         <v>1297428</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,7 +7626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314F5978-21EB-4BF3-8AB1-1279C005B31D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E5CA3-C277-4FFD-A805-901093C5C68A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7697,7 +7643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7810,7 +7756,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7825,7 +7771,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7840,7 +7786,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,7 +7807,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7870,13 +7816,13 @@
         <v>1165</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -7885,13 +7831,13 @@
         <v>1165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>571</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,13 +7852,13 @@
         <v>4820</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7921,13 +7867,13 @@
         <v>3564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -7936,19 +7882,19 @@
         <v>8384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>35</v>
@@ -7957,13 +7903,13 @@
         <v>18617</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -7972,13 +7918,13 @@
         <v>13679</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -7987,19 +7933,19 @@
         <v>32296</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>69</v>
@@ -8008,13 +7954,13 @@
         <v>33383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H8" s="7">
         <v>75</v>
@@ -8023,13 +7969,13 @@
         <v>37475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M8" s="7">
         <v>144</v>
@@ -8038,13 +7984,13 @@
         <v>70857</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>591</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8005,13 @@
         <v>56819</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>106</v>
@@ -8074,13 +8020,13 @@
         <v>55884</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -8089,18 +8035,18 @@
         <v>112702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -8148,7 +8094,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,13 +8109,13 @@
         <v>5035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>596</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -8178,13 +8124,13 @@
         <v>6644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -8193,13 +8139,13 @@
         <v>11679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>604</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>568</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8160,13 @@
         <v>19103</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>85</v>
+        <v>602</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -8229,13 +8175,13 @@
         <v>12499</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>603</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>608</v>
+        <v>175</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -8244,19 +8190,19 @@
         <v>31603</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>397</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>126</v>
@@ -8265,13 +8211,13 @@
         <v>83471</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -8280,13 +8226,13 @@
         <v>76838</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M13" s="7">
         <v>245</v>
@@ -8295,19 +8241,19 @@
         <v>160308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>113</v>
@@ -8319,10 +8265,10 @@
         <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>618</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -8331,13 +8277,13 @@
         <v>58909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M14" s="7">
         <v>215</v>
@@ -8346,13 +8292,13 @@
         <v>126599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8313,13 @@
         <v>175299</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
         <v>252</v>
@@ -8382,13 +8328,13 @@
         <v>154890</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>528</v>
@@ -8397,13 +8343,13 @@
         <v>330189</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,7 +8372,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>628</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8435,13 +8381,13 @@
         <v>833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8450,13 +8396,13 @@
         <v>833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,13 +8417,13 @@
         <v>3655</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -8486,13 +8432,13 @@
         <v>6752</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -8501,13 +8447,13 @@
         <v>10408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>634</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8468,13 @@
         <v>26625</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -8537,13 +8483,13 @@
         <v>24438</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -8552,19 +8498,19 @@
         <v>51063</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>125</v>
@@ -8573,13 +8519,13 @@
         <v>103753</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="H19" s="7">
         <v>116</v>
@@ -8588,13 +8534,13 @@
         <v>85137</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>652</v>
+        <v>502</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
@@ -8603,19 +8549,19 @@
         <v>188889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>655</v>
+        <v>544</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>656</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>81</v>
@@ -8624,13 +8570,13 @@
         <v>68445</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -8639,13 +8585,13 @@
         <v>59009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M20" s="7">
         <v>160</v>
@@ -8654,13 +8600,13 @@
         <v>127454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,13 +8621,13 @@
         <v>202478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>233</v>
@@ -8690,13 +8636,13 @@
         <v>176168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -8705,13 +8651,13 @@
         <v>378646</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8734,7 +8680,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8749,7 +8695,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8764,7 +8710,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8725,13 @@
         <v>6215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>669</v>
+        <v>89</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -8794,13 +8740,13 @@
         <v>3583</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -8809,13 +8755,13 @@
         <v>9798</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>566</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8776,13 @@
         <v>33624</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -8845,13 +8791,13 @@
         <v>29073</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>681</v>
+        <v>602</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -8860,19 +8806,19 @@
         <v>62697</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>683</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>174</v>
@@ -8881,13 +8827,13 @@
         <v>142035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -8896,13 +8842,13 @@
         <v>121459</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -8911,19 +8857,19 @@
         <v>263494</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>117</v>
@@ -8932,13 +8878,13 @@
         <v>106181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>516</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>550</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -8947,13 +8893,13 @@
         <v>101504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -8962,13 +8908,13 @@
         <v>207685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>686</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,13 +8929,13 @@
         <v>288055</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>336</v>
@@ -8998,13 +8944,13 @@
         <v>255618</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>677</v>
@@ -9013,13 +8959,13 @@
         <v>543673</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9051,13 +8997,13 @@
         <v>833</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -9066,13 +9012,13 @@
         <v>833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9033,13 @@
         <v>14905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>708</v>
+        <v>348</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -9102,13 +9048,13 @@
         <v>18144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -9117,13 +9063,13 @@
         <v>33049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>223</v>
+        <v>697</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>712</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9138,13 +9084,13 @@
         <v>84172</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -9153,13 +9099,13 @@
         <v>69574</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>716</v>
+        <v>139</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>717</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -9168,19 +9114,19 @@
         <v>153746</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>460</v>
@@ -9189,13 +9135,13 @@
         <v>347875</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="H31" s="7">
         <v>419</v>
@@ -9204,13 +9150,13 @@
         <v>297112</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="M31" s="7">
         <v>879</v>
@@ -9219,19 +9165,19 @@
         <v>644987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>728</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>380</v>
@@ -9240,13 +9186,13 @@
         <v>275699</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>552</v>
+        <v>713</v>
       </c>
       <c r="H32" s="7">
         <v>382</v>
@@ -9255,13 +9201,13 @@
         <v>256896</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="M32" s="7">
         <v>762</v>
@@ -9270,13 +9216,13 @@
         <v>532595</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9291,13 +9237,13 @@
         <v>722651</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>927</v>
@@ -9306,13 +9252,13 @@
         <v>642559</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>1899</v>
@@ -9321,13 +9267,13 @@
         <v>1365210</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
